--- a/【北京】-曹琨进度表.xlsx
+++ b/【北京】-曹琨进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>日期</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>将良仓登录页面写完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向后台请求数据并把数据渲染到页面中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +134,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -134,6 +146,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -432,7 +450,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -472,8 +490,12 @@
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4">
+        <v>43038</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
@@ -484,8 +506,12 @@
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5">
+        <v>43039</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
@@ -496,10 +522,16 @@
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5">
+        <v>43040</v>
+      </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="2" t="s">

--- a/【北京】-曹琨进度表.xlsx
+++ b/【北京】-曹琨进度表.xlsx
@@ -43,9 +43,6 @@
     <t>第三天</t>
   </si>
   <si>
-    <t>添加页面与后台交互ajax请求数据</t>
-  </si>
-  <si>
     <t>第四天</t>
   </si>
   <si>
@@ -75,6 +72,10 @@
   </si>
   <si>
     <t>向后台请求数据并把数据渲染到页面中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加页面与后台交互ajax请求数据 以及页面拼接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,7 +451,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -488,10 +489,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="D2" s="4">
         <v>43038</v>
@@ -504,10 +505,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="5">
         <v>43039</v>
@@ -520,25 +521,25 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5">
         <v>43040</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -547,10 +548,10 @@
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
